--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -593,7 +593,7 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.559946969491136E-08</v>
+        <v>0.001732280406275599</v>
       </c>
       <c r="D2">
-        <v>0.0009267299077695412</v>
+        <v>0.03553690120744424</v>
       </c>
       <c r="E2">
-        <v>0.2078577285114975</v>
+        <v>0.09692510740376958</v>
       </c>
       <c r="F2">
-        <v>0.7842330607078927</v>
+        <v>0.802539175392045</v>
       </c>
       <c r="G2">
-        <v>6.978539760105207E-05</v>
+        <v>0.01274359335693198</v>
       </c>
       <c r="H2">
-        <v>8.363391994370417E-05</v>
+        <v>0.01570862913530968</v>
       </c>
       <c r="I2">
-        <v>1.034094634366767E-07</v>
+        <v>0.002082149059181138</v>
       </c>
       <c r="J2">
-        <v>0.0007107592391883966</v>
+        <v>0.007195763463765159</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.559946969491136E-08</v>
+        <v>0.001732280406275599</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.310463097567663E-10</v>
       </c>
       <c r="E3">
-        <v>5.603751996430262E-06</v>
+        <v>0.0005105860238883153</v>
       </c>
       <c r="F3">
-        <v>1.72982199675431E-08</v>
+        <v>0.0006236394131142742</v>
       </c>
       <c r="G3">
-        <v>4.440892098500626E-16</v>
+        <v>4.35984300173331E-06</v>
       </c>
       <c r="H3">
-        <v>2.220446049250313E-16</v>
+        <v>2.833045852801419E-06</v>
       </c>
       <c r="I3">
-        <v>4.831174218322687E-05</v>
+        <v>0.004749877926248258</v>
       </c>
       <c r="J3">
-        <v>2.220446049250313E-16</v>
+        <v>9.854793757035907E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0009267299077695412</v>
+        <v>0.03553690120744424</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.310463097567663E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0007791077095684606</v>
+        <v>0.006354680427024029</v>
       </c>
       <c r="F4">
-        <v>0.0004460744845871112</v>
+        <v>0.01814263608366296</v>
       </c>
       <c r="G4">
-        <v>0.5236728035257463</v>
+        <v>0.548437929691767</v>
       </c>
       <c r="H4">
-        <v>0.2940476851220963</v>
+        <v>0.3035459084401453</v>
       </c>
       <c r="I4">
-        <v>2.442490654175344E-15</v>
+        <v>2.798695875050328E-08</v>
       </c>
       <c r="J4">
-        <v>1.639133273556581E-12</v>
+        <v>0.0001323567720408203</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2078577285114975</v>
+        <v>0.09692510740376958</v>
       </c>
       <c r="C5">
-        <v>5.603751996430262E-06</v>
+        <v>0.0005105860238883153</v>
       </c>
       <c r="D5">
-        <v>0.0007791077095684606</v>
+        <v>0.006354680427024029</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2171789449499633</v>
+        <v>0.1214972155947127</v>
       </c>
       <c r="G5">
-        <v>0.0007723955877589894</v>
+        <v>0.00344898439426955</v>
       </c>
       <c r="H5">
-        <v>0.0006359756936022976</v>
+        <v>0.003475674279061369</v>
       </c>
       <c r="I5">
-        <v>1.67177408938457E-05</v>
+        <v>0.0007641766127153282</v>
       </c>
       <c r="J5">
-        <v>0.3134649376769694</v>
+        <v>0.2603074031094359</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7842330607078927</v>
+        <v>0.802539175392045</v>
       </c>
       <c r="C6">
-        <v>1.72982199675431E-08</v>
+        <v>0.0006236394131142742</v>
       </c>
       <c r="D6">
-        <v>0.0004460744845871112</v>
+        <v>0.01814263608366296</v>
       </c>
       <c r="E6">
-        <v>0.2171789449499633</v>
+        <v>0.1214972155947127</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.44075396135446E-05</v>
+        <v>0.005202714774447337</v>
       </c>
       <c r="H6">
-        <v>4.651665817734241E-05</v>
+        <v>0.006917648542805743</v>
       </c>
       <c r="I6">
-        <v>3.197089992745816E-08</v>
+        <v>0.0007142770770791618</v>
       </c>
       <c r="J6">
-        <v>0.0004414092672748726</v>
+        <v>0.003844282014359601</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.978539760105207E-05</v>
+        <v>0.01274359335693198</v>
       </c>
       <c r="C7">
-        <v>4.440892098500626E-16</v>
+        <v>4.35984300173331E-06</v>
       </c>
       <c r="D7">
-        <v>0.5236728035257463</v>
+        <v>0.548437929691767</v>
       </c>
       <c r="E7">
-        <v>0.0007723955877589894</v>
+        <v>0.00344898439426955</v>
       </c>
       <c r="F7">
-        <v>4.44075396135446E-05</v>
+        <v>0.005202714774447337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4986771059207893</v>
+        <v>0.5223405372207397</v>
       </c>
       <c r="I7">
-        <v>4.440892098500626E-16</v>
+        <v>2.560026612030697E-06</v>
       </c>
       <c r="J7">
-        <v>1.317101983033808E-11</v>
+        <v>6.160927502341096E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.363391994370417E-05</v>
+        <v>0.01570862913530968</v>
       </c>
       <c r="C8">
-        <v>2.220446049250313E-16</v>
+        <v>2.833045852801419E-06</v>
       </c>
       <c r="D8">
-        <v>0.2940476851220963</v>
+        <v>0.3035459084401453</v>
       </c>
       <c r="E8">
-        <v>0.0006359756936022976</v>
+        <v>0.003475674279061369</v>
       </c>
       <c r="F8">
-        <v>4.651665817734241E-05</v>
+        <v>0.006917648542805743</v>
       </c>
       <c r="G8">
-        <v>0.4986771059207893</v>
+        <v>0.5223405372207397</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>9.769962616701378E-15</v>
+        <v>4.977215776857946E-06</v>
       </c>
       <c r="J8">
-        <v>1.632449730948338E-11</v>
+        <v>6.882446870237757E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034094634366767E-07</v>
+        <v>0.002082149059181138</v>
       </c>
       <c r="C9">
-        <v>4.831174218322687E-05</v>
+        <v>0.004749877926248258</v>
       </c>
       <c r="D9">
-        <v>2.442490654175344E-15</v>
+        <v>2.798695875050328E-08</v>
       </c>
       <c r="E9">
-        <v>1.67177408938457E-05</v>
+        <v>0.0007641766127153282</v>
       </c>
       <c r="F9">
-        <v>3.197089992745816E-08</v>
+        <v>0.0007142770770791618</v>
       </c>
       <c r="G9">
-        <v>4.440892098500626E-16</v>
+        <v>2.560026612030697E-06</v>
       </c>
       <c r="H9">
-        <v>9.769962616701378E-15</v>
+        <v>4.977215776857946E-06</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.110223024625157E-15</v>
+        <v>1.306705973824762E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0007107592391883966</v>
+        <v>0.007195763463765159</v>
       </c>
       <c r="C10">
-        <v>2.220446049250313E-16</v>
+        <v>9.854793757035907E-06</v>
       </c>
       <c r="D10">
-        <v>1.639133273556581E-12</v>
+        <v>0.0001323567720408203</v>
       </c>
       <c r="E10">
-        <v>0.3134649376769694</v>
+        <v>0.2603074031094359</v>
       </c>
       <c r="F10">
-        <v>0.0004414092672748726</v>
+        <v>0.003844282014359601</v>
       </c>
       <c r="G10">
-        <v>1.317101983033808E-11</v>
+        <v>6.160927502341096E-05</v>
       </c>
       <c r="H10">
-        <v>1.632449730948338E-11</v>
+        <v>6.882446870237757E-05</v>
       </c>
       <c r="I10">
-        <v>1.110223024625157E-15</v>
+        <v>1.306705973824762E-05</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.520116082947557</v>
+        <v>3.860224414494249</v>
       </c>
       <c r="D2">
-        <v>3.332680657783296</v>
+        <v>2.326211033602827</v>
       </c>
       <c r="E2">
-        <v>-1.261180441273341</v>
+        <v>-1.779156773411489</v>
       </c>
       <c r="F2">
-        <v>-0.2739605195877348</v>
+        <v>-0.2548570019888785</v>
       </c>
       <c r="G2">
-        <v>4.012196048474427</v>
+        <v>2.854212488590707</v>
       </c>
       <c r="H2">
-        <v>3.967824446673769</v>
+        <v>2.747932236517209</v>
       </c>
       <c r="I2">
-        <v>5.40310679358069</v>
+        <v>3.76701748786005</v>
       </c>
       <c r="J2">
-        <v>-3.40754231397813</v>
+        <v>-3.142666658164647</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.520116082947557</v>
+        <v>-3.860224414494249</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.91212737423227</v>
+        <v>-15.18939526811226</v>
       </c>
       <c r="E3">
-        <v>-4.592560162023203</v>
+        <v>-4.488212476949606</v>
       </c>
       <c r="F3">
-        <v>-5.734925556004454</v>
+        <v>-4.38408058842305</v>
       </c>
       <c r="G3">
-        <v>-8.417107521616748</v>
+        <v>-7.229568207045736</v>
       </c>
       <c r="H3">
-        <v>-8.495156106216406</v>
+        <v>-7.510577134412886</v>
       </c>
       <c r="I3">
-        <v>-4.101094144480659</v>
+        <v>-3.351488462820882</v>
       </c>
       <c r="J3">
-        <v>-8.56578933692173</v>
+        <v>-6.715473455456671</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3.332680657783296</v>
+        <v>-2.326211033602827</v>
       </c>
       <c r="C4">
-        <v>9.91212737423227</v>
+        <v>15.18939526811226</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.381791931684658</v>
+        <v>-3.205184383521898</v>
       </c>
       <c r="F4">
-        <v>-3.535787830252485</v>
+        <v>-2.674414636898157</v>
       </c>
       <c r="G4">
-        <v>0.6381626056534222</v>
+        <v>0.6149741020444036</v>
       </c>
       <c r="H4">
-        <v>1.050435307169466</v>
+        <v>1.068103446154648</v>
       </c>
       <c r="I4">
-        <v>8.184001899266249</v>
+        <v>11.01085298148083</v>
       </c>
       <c r="J4">
-        <v>-7.254012726517809</v>
+        <v>-5.209135733142663</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.261180441273341</v>
+        <v>1.779156773411489</v>
       </c>
       <c r="C5">
-        <v>4.592560162023203</v>
+        <v>4.488212476949606</v>
       </c>
       <c r="D5">
-        <v>3.381791931684658</v>
+        <v>3.205184383521898</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.23569145339389</v>
+        <v>1.648516355217216</v>
       </c>
       <c r="G5">
-        <v>3.384225498635488</v>
+        <v>3.512425980627033</v>
       </c>
       <c r="H5">
-        <v>3.438507756087963</v>
+        <v>3.508546505851935</v>
       </c>
       <c r="I5">
-        <v>4.349023412640932</v>
+        <v>4.278864438591858</v>
       </c>
       <c r="J5">
-        <v>-1.009039894765142</v>
+        <v>-1.173155710531135</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2739605195877348</v>
+        <v>0.2548570019888785</v>
       </c>
       <c r="C6">
-        <v>5.734925556004454</v>
+        <v>4.38408058842305</v>
       </c>
       <c r="D6">
-        <v>3.535787830252485</v>
+        <v>2.674414636898157</v>
       </c>
       <c r="E6">
-        <v>-1.23569145339389</v>
+        <v>-1.648516355217216</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.121237224845796</v>
+        <v>3.30572185712368</v>
       </c>
       <c r="H6">
-        <v>4.11015556225736</v>
+        <v>3.162496044984905</v>
       </c>
       <c r="I6">
-        <v>5.622760999836722</v>
+        <v>4.313762460547967</v>
       </c>
       <c r="J6">
-        <v>-3.538637515586854</v>
+        <v>-3.457835655201027</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-4.012196048474427</v>
+        <v>-2.854212488590707</v>
       </c>
       <c r="C7">
-        <v>8.417107521616748</v>
+        <v>7.229568207045736</v>
       </c>
       <c r="D7">
-        <v>-0.6381626056534222</v>
+        <v>-0.6149741020444036</v>
       </c>
       <c r="E7">
-        <v>-3.384225498635488</v>
+        <v>-3.512425980627033</v>
       </c>
       <c r="F7">
-        <v>-4.121237224845796</v>
+        <v>-3.30572185712368</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.6770878049798714</v>
+        <v>0.6561912319224935</v>
       </c>
       <c r="I7">
-        <v>8.425953413947038</v>
+        <v>7.57760939856421</v>
       </c>
       <c r="J7">
-        <v>-6.935492662488742</v>
+        <v>-5.634249118029534</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.967824446673769</v>
+        <v>-2.747932236517209</v>
       </c>
       <c r="C8">
-        <v>8.495156106216406</v>
+        <v>7.510577134412886</v>
       </c>
       <c r="D8">
-        <v>-1.050435307169466</v>
+        <v>-1.068103446154648</v>
       </c>
       <c r="E8">
-        <v>-3.438507756087963</v>
+        <v>-3.508546505851935</v>
       </c>
       <c r="F8">
-        <v>-4.11015556225736</v>
+        <v>-3.162496044984905</v>
       </c>
       <c r="G8">
-        <v>-0.6770878049798714</v>
+        <v>-0.6561912319224935</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.995785196987798</v>
+        <v>7.144556562521533</v>
       </c>
       <c r="J8">
-        <v>-6.902035254778076</v>
+        <v>-5.571827243408594</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.40310679358069</v>
+        <v>-3.76701748786005</v>
       </c>
       <c r="C9">
-        <v>4.101094144480659</v>
+        <v>3.351488462820882</v>
       </c>
       <c r="D9">
-        <v>-8.184001899266249</v>
+        <v>-11.01085298148083</v>
       </c>
       <c r="E9">
-        <v>-4.349023412640932</v>
+        <v>-4.278864438591858</v>
       </c>
       <c r="F9">
-        <v>-5.622760999836722</v>
+        <v>-4.313762460547967</v>
       </c>
       <c r="G9">
-        <v>-8.425953413947038</v>
+        <v>-7.57760939856421</v>
       </c>
       <c r="H9">
-        <v>-7.995785196987798</v>
+        <v>-7.144556562521533</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-8.288734893465543</v>
+        <v>-6.542655655293229</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.40754231397813</v>
+        <v>3.142666658164647</v>
       </c>
       <c r="C10">
-        <v>8.56578933692173</v>
+        <v>6.715473455456671</v>
       </c>
       <c r="D10">
-        <v>7.254012726517809</v>
+        <v>5.209135733142663</v>
       </c>
       <c r="E10">
-        <v>1.009039894765142</v>
+        <v>1.173155710531135</v>
       </c>
       <c r="F10">
-        <v>3.538637515586854</v>
+        <v>3.457835655201027</v>
       </c>
       <c r="G10">
-        <v>6.935492662488742</v>
+        <v>5.634249118029534</v>
       </c>
       <c r="H10">
-        <v>6.902035254778076</v>
+        <v>5.571827243408594</v>
       </c>
       <c r="I10">
-        <v>8.288734893465543</v>
+        <v>6.542655655293229</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>0.5464135857990908</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>0.574004851152303</v>
@@ -1480,16 +1480,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
         <v>0.6985225186644016</v>
@@ -1500,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
         <v>0.7059666671819314</v>
@@ -1520,16 +1520,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>0.7196613918393555</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.9559532634470479</v>
@@ -1557,42 +1557,42 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9604152130268676</v>
+        <v>1.076995155575413</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.076995155575413</v>
+        <v>0.9604152130268676</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.001732280406275599</v>
+        <v>0.0004603596718804059</v>
       </c>
       <c r="D2">
-        <v>0.03553690120744424</v>
+        <v>0.06383109671043785</v>
       </c>
       <c r="E2">
-        <v>0.09692510740376958</v>
+        <v>0.0918004001931505</v>
       </c>
       <c r="F2">
-        <v>0.802539175392045</v>
+        <v>0.02008901534758256</v>
       </c>
       <c r="G2">
-        <v>0.01274359335693198</v>
+        <v>0.03024957653539251</v>
       </c>
       <c r="H2">
-        <v>0.01570862913530968</v>
+        <v>0.01630596399819662</v>
       </c>
       <c r="I2">
-        <v>0.002082149059181138</v>
+        <v>0.0004799618463169342</v>
       </c>
       <c r="J2">
-        <v>0.007195763463765159</v>
+        <v>0.2824691507159374</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001732280406275599</v>
+        <v>0.0004603596718804059</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.310463097567663E-10</v>
+        <v>2.627703854507502E-08</v>
       </c>
       <c r="E3">
-        <v>0.0005105860238883153</v>
+        <v>1.211743971829549E-08</v>
       </c>
       <c r="F3">
-        <v>0.0006236394131142742</v>
+        <v>0.0001795343187138698</v>
       </c>
       <c r="G3">
-        <v>4.35984300173331E-06</v>
+        <v>3.104975077050653E-08</v>
       </c>
       <c r="H3">
-        <v>2.833045852801419E-06</v>
+        <v>5.28165962077054E-08</v>
       </c>
       <c r="I3">
-        <v>0.004749877926248258</v>
+        <v>0.005198636968468895</v>
       </c>
       <c r="J3">
-        <v>9.854793757035907E-06</v>
+        <v>1.111324564484484E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03553690120744424</v>
+        <v>0.06383109671043785</v>
       </c>
       <c r="C4">
-        <v>4.310463097567663E-10</v>
+        <v>2.627703854507502E-08</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.006354680427024029</v>
+        <v>1.202704875247207E-06</v>
       </c>
       <c r="F4">
-        <v>0.01814263608366296</v>
+        <v>0.02253421491343777</v>
       </c>
       <c r="G4">
-        <v>0.548437929691767</v>
+        <v>0.2509135187688283</v>
       </c>
       <c r="H4">
-        <v>0.3035459084401453</v>
+        <v>0.01652997287629954</v>
       </c>
       <c r="I4">
-        <v>2.798695875050328E-08</v>
+        <v>6.403430896639861E-09</v>
       </c>
       <c r="J4">
-        <v>0.0001323567720408203</v>
+        <v>0.02957444229128048</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09692510740376958</v>
+        <v>0.0918004001931505</v>
       </c>
       <c r="C5">
-        <v>0.0005105860238883153</v>
+        <v>1.211743971829549E-08</v>
       </c>
       <c r="D5">
-        <v>0.006354680427024029</v>
+        <v>1.202704875247207E-06</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1214972155947127</v>
+        <v>0.03328363807809009</v>
       </c>
       <c r="G5">
-        <v>0.00344898439426955</v>
+        <v>0.04565984512699828</v>
       </c>
       <c r="H5">
-        <v>0.003475674279061369</v>
+        <v>0.001404781818113543</v>
       </c>
       <c r="I5">
-        <v>0.0007641766127153282</v>
+        <v>2.13060702414225E-09</v>
       </c>
       <c r="J5">
-        <v>0.2603074031094359</v>
+        <v>0.05749222158156697</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.802539175392045</v>
+        <v>0.02008901534758256</v>
       </c>
       <c r="C6">
-        <v>0.0006236394131142742</v>
+        <v>0.0001795343187138698</v>
       </c>
       <c r="D6">
-        <v>0.01814263608366296</v>
+        <v>0.02253421491343777</v>
       </c>
       <c r="E6">
-        <v>0.1214972155947127</v>
+        <v>0.03328363807809009</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.005202714774447337</v>
+        <v>0.0089128663932172</v>
       </c>
       <c r="H6">
-        <v>0.006917648542805743</v>
+        <v>0.004764787120800085</v>
       </c>
       <c r="I6">
-        <v>0.0007142770770791618</v>
+        <v>0.0001563792182146528</v>
       </c>
       <c r="J6">
-        <v>0.003844282014359601</v>
+        <v>0.06472374953293425</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01274359335693198</v>
+        <v>0.03024957653539251</v>
       </c>
       <c r="C7">
-        <v>4.35984300173331E-06</v>
+        <v>3.104975077050653E-08</v>
       </c>
       <c r="D7">
-        <v>0.548437929691767</v>
+        <v>0.2509135187688283</v>
       </c>
       <c r="E7">
-        <v>0.00344898439426955</v>
+        <v>0.04565984512699828</v>
       </c>
       <c r="F7">
-        <v>0.005202714774447337</v>
+        <v>0.0089128663932172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5223405372207397</v>
+        <v>0.0118243421357791</v>
       </c>
       <c r="I7">
-        <v>2.560026612030697E-06</v>
+        <v>8.959772923589071E-10</v>
       </c>
       <c r="J7">
-        <v>6.160927502341096E-05</v>
+        <v>0.006653710426528514</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01570862913530968</v>
+        <v>0.01630596399819662</v>
       </c>
       <c r="C8">
-        <v>2.833045852801419E-06</v>
+        <v>5.28165962077054E-08</v>
       </c>
       <c r="D8">
-        <v>0.3035459084401453</v>
+        <v>0.01652997287629954</v>
       </c>
       <c r="E8">
-        <v>0.003475674279061369</v>
+        <v>0.001404781818113543</v>
       </c>
       <c r="F8">
-        <v>0.006917648542805743</v>
+        <v>0.004764787120800085</v>
       </c>
       <c r="G8">
-        <v>0.5223405372207397</v>
+        <v>0.0118243421357791</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>4.977215776857946E-06</v>
+        <v>4.57845761303588E-10</v>
       </c>
       <c r="J8">
-        <v>6.882446870237757E-05</v>
+        <v>0.001739026852069836</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002082149059181138</v>
+        <v>0.0004799618463169342</v>
       </c>
       <c r="C9">
-        <v>0.004749877926248258</v>
+        <v>0.005198636968468895</v>
       </c>
       <c r="D9">
-        <v>2.798695875050328E-08</v>
+        <v>6.403430896639861E-09</v>
       </c>
       <c r="E9">
-        <v>0.0007641766127153282</v>
+        <v>2.13060702414225E-09</v>
       </c>
       <c r="F9">
-        <v>0.0007142770770791618</v>
+        <v>0.0001563792182146528</v>
       </c>
       <c r="G9">
-        <v>2.560026612030697E-06</v>
+        <v>8.959772923589071E-10</v>
       </c>
       <c r="H9">
-        <v>4.977215776857946E-06</v>
+        <v>4.57845761303588E-10</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.306705973824762E-05</v>
+        <v>8.444249060879372E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007195763463765159</v>
+        <v>0.2824691507159374</v>
       </c>
       <c r="C10">
-        <v>9.854793757035907E-06</v>
+        <v>1.111324564484484E-05</v>
       </c>
       <c r="D10">
-        <v>0.0001323567720408203</v>
+        <v>0.02957444229128048</v>
       </c>
       <c r="E10">
-        <v>0.2603074031094359</v>
+        <v>0.05749222158156697</v>
       </c>
       <c r="F10">
-        <v>0.003844282014359601</v>
+        <v>0.06472374953293425</v>
       </c>
       <c r="G10">
-        <v>6.160927502341096E-05</v>
+        <v>0.006653710426528514</v>
       </c>
       <c r="H10">
-        <v>6.882446870237757E-05</v>
+        <v>0.001739026852069836</v>
       </c>
       <c r="I10">
-        <v>1.306705973824762E-05</v>
+        <v>8.444249060879372E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.860224414494249</v>
+        <v>4.110744124460449</v>
       </c>
       <c r="D2">
-        <v>2.326211033602827</v>
+        <v>1.951607419931159</v>
       </c>
       <c r="E2">
-        <v>-1.779156773411489</v>
+        <v>1.762926959739923</v>
       </c>
       <c r="F2">
-        <v>-0.2548570019888785</v>
+        <v>-2.506293246477257</v>
       </c>
       <c r="G2">
-        <v>2.854212488590707</v>
+        <v>2.31625350475929</v>
       </c>
       <c r="H2">
-        <v>2.747932236517209</v>
+        <v>2.601094231752304</v>
       </c>
       <c r="I2">
-        <v>3.76701748786005</v>
+        <v>4.093660423169664</v>
       </c>
       <c r="J2">
-        <v>-3.142666658164647</v>
+        <v>1.101771726064152</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.860224414494249</v>
+        <v>-4.110744124460449</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-15.18939526811226</v>
+        <v>-8.395058123269321</v>
       </c>
       <c r="E3">
-        <v>-4.488212476949606</v>
+        <v>-8.782648834091116</v>
       </c>
       <c r="F3">
-        <v>-4.38408058842305</v>
+        <v>-4.496189871987101</v>
       </c>
       <c r="G3">
-        <v>-7.229568207045736</v>
+        <v>-8.312763158389979</v>
       </c>
       <c r="H3">
-        <v>-7.510577134412886</v>
+        <v>-8.053710862634137</v>
       </c>
       <c r="I3">
-        <v>-3.351488462820882</v>
+        <v>-3.102173161173071</v>
       </c>
       <c r="J3">
-        <v>-6.715473455456671</v>
+        <v>-5.649249517030039</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.326211033602827</v>
+        <v>-1.951607419931159</v>
       </c>
       <c r="C4">
-        <v>15.18939526811226</v>
+        <v>8.395058123269321</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.205184383521898</v>
+        <v>-6.609474459487517</v>
       </c>
       <c r="F4">
-        <v>-2.674414636898157</v>
+        <v>-2.453538463623242</v>
       </c>
       <c r="G4">
-        <v>0.6149741020444036</v>
+        <v>1.179202312309721</v>
       </c>
       <c r="H4">
-        <v>1.068103446154648</v>
+        <v>2.594932910487726</v>
       </c>
       <c r="I4">
-        <v>11.01085298148083</v>
+        <v>9.109626799351735</v>
       </c>
       <c r="J4">
-        <v>-5.209135733142663</v>
+        <v>-2.326889263946303</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.779156773411489</v>
+        <v>-1.762926959739923</v>
       </c>
       <c r="C5">
-        <v>4.488212476949606</v>
+        <v>8.782648834091116</v>
       </c>
       <c r="D5">
-        <v>3.205184383521898</v>
+        <v>6.609474459487517</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.648516355217216</v>
+        <v>-2.270993507688149</v>
       </c>
       <c r="G5">
-        <v>3.512425980627033</v>
+        <v>2.118526888745887</v>
       </c>
       <c r="H5">
-        <v>3.508546505851935</v>
+        <v>3.651725693747749</v>
       </c>
       <c r="I5">
-        <v>4.278864438591858</v>
+        <v>9.690924352347391</v>
       </c>
       <c r="J5">
-        <v>-1.173155710531135</v>
+        <v>-2.004375110392823</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2548570019888785</v>
+        <v>2.506293246477257</v>
       </c>
       <c r="C6">
-        <v>4.38408058842305</v>
+        <v>4.496189871987101</v>
       </c>
       <c r="D6">
-        <v>2.674414636898157</v>
+        <v>2.453538463623242</v>
       </c>
       <c r="E6">
-        <v>-1.648516355217216</v>
+        <v>2.270993507688149</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.30572185712368</v>
+        <v>2.869195507138201</v>
       </c>
       <c r="H6">
-        <v>3.162496044984905</v>
+        <v>3.139387973435821</v>
       </c>
       <c r="I6">
-        <v>4.313762460547967</v>
+        <v>4.552745238053314</v>
       </c>
       <c r="J6">
-        <v>-3.457835655201027</v>
+        <v>1.944552781757077</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.854212488590707</v>
+        <v>-2.31625350475929</v>
       </c>
       <c r="C7">
-        <v>7.229568207045736</v>
+        <v>8.312763158389979</v>
       </c>
       <c r="D7">
-        <v>-0.6149741020444036</v>
+        <v>-1.179202312309721</v>
       </c>
       <c r="E7">
-        <v>-3.512425980627033</v>
+        <v>-2.118526888745887</v>
       </c>
       <c r="F7">
-        <v>-3.30572185712368</v>
+        <v>-2.869195507138201</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.6561912319224935</v>
+        <v>2.744803532454687</v>
       </c>
       <c r="I7">
-        <v>7.57760939856421</v>
+        <v>10.16472541207224</v>
       </c>
       <c r="J7">
-        <v>-5.634249118029534</v>
+        <v>-2.996150099104661</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.747932236517209</v>
+        <v>-2.601094231752304</v>
       </c>
       <c r="C8">
-        <v>7.510577134412886</v>
+        <v>8.053710862634137</v>
       </c>
       <c r="D8">
-        <v>-1.068103446154648</v>
+        <v>-2.594932910487726</v>
       </c>
       <c r="E8">
-        <v>-3.508546505851935</v>
+        <v>-3.651725693747749</v>
       </c>
       <c r="F8">
-        <v>-3.162496044984905</v>
+        <v>-3.139387973435821</v>
       </c>
       <c r="G8">
-        <v>-0.6561912319224935</v>
+        <v>-2.744803532454687</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.144556562521533</v>
+        <v>10.54233970429959</v>
       </c>
       <c r="J8">
-        <v>-5.571827243408594</v>
+        <v>-3.563180543790122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.76701748786005</v>
+        <v>-4.093660423169664</v>
       </c>
       <c r="C9">
-        <v>3.351488462820882</v>
+        <v>3.102173161173071</v>
       </c>
       <c r="D9">
-        <v>-11.01085298148083</v>
+        <v>-9.109626799351735</v>
       </c>
       <c r="E9">
-        <v>-4.278864438591858</v>
+        <v>-9.690924352347391</v>
       </c>
       <c r="F9">
-        <v>-4.313762460547967</v>
+        <v>-4.552745238053314</v>
       </c>
       <c r="G9">
-        <v>-7.57760939856421</v>
+        <v>-10.16472541207224</v>
       </c>
       <c r="H9">
-        <v>-7.144556562521533</v>
+        <v>-10.54233970429959</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-6.542655655293229</v>
+        <v>-5.765500004393085</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.142666658164647</v>
+        <v>-1.101771726064152</v>
       </c>
       <c r="C10">
-        <v>6.715473455456671</v>
+        <v>5.649249517030039</v>
       </c>
       <c r="D10">
-        <v>5.209135733142663</v>
+        <v>2.326889263946303</v>
       </c>
       <c r="E10">
-        <v>1.173155710531135</v>
+        <v>2.004375110392823</v>
       </c>
       <c r="F10">
-        <v>3.457835655201027</v>
+        <v>-1.944552781757077</v>
       </c>
       <c r="G10">
-        <v>5.634249118029534</v>
+        <v>2.996150099104661</v>
       </c>
       <c r="H10">
-        <v>5.571827243408594</v>
+        <v>3.563180543790122</v>
       </c>
       <c r="I10">
-        <v>6.542655655293229</v>
+        <v>5.765500004393085</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="F2">
-        <v>0.5464135857990908</v>
+        <v>0.5486678588830807</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,24 +1460,24 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="F3">
-        <v>0.574004851152303</v>
+        <v>0.5797743837610607</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1492,72 +1492,72 @@
         <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.6985225186644016</v>
+        <v>0.7625433183372602</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7059666671819314</v>
+        <v>0.8942725799144582</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7196613918393555</v>
+        <v>0.7760342464003689</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9559532634470479</v>
+        <v>0.9275089090905068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1572,12 +1572,12 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.076995155575413</v>
+        <v>0.7441800230032644</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9604152130268676</v>
+        <v>0.7246483305922792</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.15301740025674</v>
+        <v>0.8550688176140749</v>
       </c>
     </row>
   </sheetData>
